--- a/варианты/горбачев/3/4.xlsx
+++ b/варианты/горбачев/3/4.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="22992" windowHeight="10056"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -379,24 +379,24 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -407,7 +407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -451,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>SUM(B6:B11)+B9*3</f>
         <v>26</v>
@@ -483,7 +483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
